--- a/合作伙伴.xlsx
+++ b/合作伙伴.xlsx
@@ -1,37 +1,344 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PythonUtils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>证书&amp;奖杯制作</t>
+  </si>
+  <si>
+    <t>证书编号</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Hashed Filename</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>深圳九任嘉文科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-D2024001</t>
+  </si>
+  <si>
+    <t>NO_MINDV_D2024001</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_D2024001.png</t>
+  </si>
+  <si>
+    <t>400ae88084.png</t>
+  </si>
+  <si>
+    <t>北京鼎立安信科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025001</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025001</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025001.png</t>
+  </si>
+  <si>
+    <t>d1af242bfc.png</t>
+  </si>
+  <si>
+    <t>北京中盛益华科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025002</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025002</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025002.png</t>
+  </si>
+  <si>
+    <t>208d879f87.png</t>
+  </si>
+  <si>
+    <t>湖南领卓智能科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025003</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025003</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025003.png</t>
+  </si>
+  <si>
+    <t>dfe6705d55.png</t>
+  </si>
+  <si>
+    <t>苏州罗盘网络科技股份有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025004</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025004</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025004.png</t>
+  </si>
+  <si>
+    <t>d7505eacd4.png</t>
+  </si>
+  <si>
+    <t>盛视科技股份有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025005</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025005</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025005.png</t>
+  </si>
+  <si>
+    <t>eccd6a1445.png</t>
+  </si>
+  <si>
+    <t>图灵新讯美（重庆）科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025006</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025006</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025006.png</t>
+  </si>
+  <si>
+    <t>6fc0bf9c81.png</t>
+  </si>
+  <si>
+    <t>北京中科辰极系统有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025007</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025007</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025007.png</t>
+  </si>
+  <si>
+    <t>b6ef87a099.png</t>
+  </si>
+  <si>
+    <t>联合智慧技术有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025008</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025008</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025008.png</t>
+  </si>
+  <si>
+    <t>02a2e9b65d.png</t>
+  </si>
+  <si>
+    <t>深圳酷源数联科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025009</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025009</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025009.png</t>
+  </si>
+  <si>
+    <t>bfa90d3e35.png</t>
+  </si>
+  <si>
+    <t>国机工业互联网研究院（河南）有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025010</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025010</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025010.png</t>
+  </si>
+  <si>
+    <t>dc61d07605.png</t>
+  </si>
+  <si>
+    <t>深圳市万物云科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025011</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025011</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025011.png</t>
+  </si>
+  <si>
+    <t>afaad1798d.png</t>
+  </si>
+  <si>
+    <t>青岛安泰科技工程有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025012</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025012</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025012.png</t>
+  </si>
+  <si>
+    <t>be6a2c1ebe.png</t>
+  </si>
+  <si>
+    <t>四川易利数字城市科技有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025013</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025013</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025013.png</t>
+  </si>
+  <si>
+    <t>9e506f7d81.png</t>
+  </si>
+  <si>
+    <t>重庆云算通讯技术有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025014</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025014</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025014.png</t>
+  </si>
+  <si>
+    <t>30b4a43f27.png</t>
+  </si>
+  <si>
+    <t>东华软件股份公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025015</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025015</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025015.png</t>
+  </si>
+  <si>
+    <t>0b18fd4220.png</t>
+  </si>
+  <si>
+    <t>上海天跃科技股份有限公司</t>
+  </si>
+  <si>
+    <t>NO.MINDV-G2025016</t>
+  </si>
+  <si>
+    <t>NO_MINDV_G2025016</t>
+  </si>
+  <si>
+    <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_G2025016.png</t>
+  </si>
+  <si>
+    <t>d104d6c60d.png</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +353,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,112 +677,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>序号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>证书&amp;奖杯制作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>证书编号</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hashed Filename</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>46</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>深圳九任嘉文科技有限公司</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NO.MINDV-D2024001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NO_MINDV_D2024001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.yitutech.com/sites/default/files/partner/NO_MINDV_D2024001.png</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>400ae88084.png</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>